--- a/diary/2017-4-08(L).xlsx
+++ b/diary/2017-4-08(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>P</t>
   </si>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二頭+肩膀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +468,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -505,7 +509,9 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/diary/2017-4-08(L).xlsx
+++ b/diary/2017-4-08(L).xlsx
@@ -468,7 +468,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(E2:E14)</f>
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
